--- a/Data/Removal_efficiencies_JvD.xlsx
+++ b/Data/Removal_efficiencies_JvD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/346ebfb30976329f/Projects/Papers/03_Bayesian_Mixture_Toxicity/API_RQ_BN/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/346ebfb30976329f/Projects/Papers/99_Thesis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{E7590231-CD6A-47F7-BF35-B4552E86B7BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{414AEB10-C7D3-422D-BBA3-AF5B586EABD9}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{E7590231-CD6A-47F7-BF35-B4552E86B7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{414AEB10-C7D3-422D-BBA3-AF5B586EABD9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{D621DD03-B050-42DE-A4A0-60369347F01F}"/>
+    <workbookView minimized="1" xWindow="9855" yWindow="1470" windowWidth="16890" windowHeight="14820" xr2:uid="{D621DD03-B050-42DE-A4A0-60369347F01F}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal_calculation" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4098,7 +4103,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
